--- a/versions/v17/docs/mobile-attack-v17.0/mobile-attack-v17.0-groups.xlsx
+++ b/versions/v17/docs/mobile-attack-v17.0/mobile-attack-v17.0-groups.xlsx
@@ -477,7 +477,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -507,10 +507,10 @@
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),(Citation: mandiant_apt44_unearthing_sandworm),</t>
+    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Leonard TAG 2023),</t>
   </si>
   <si>
     <t>,(Citation: Mphasis SS_SIM_Swap Apr2024),(Citation: MSTIC Octo Tempest Operations October 2023),</t>
